--- a/Post_Flight_Datasheet_03_05_V3.xlsx
+++ b/Post_Flight_Datasheet_03_05_V3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\03_05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\SVV-B03\Programs\github\SVV_Flight_Dynamics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC01935-507F-46D5-89DA-966B28BED5AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -260,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
@@ -274,7 +275,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,7 +375,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -663,29 +670,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3"/>
-    <col min="2" max="2" width="8.1796875"/>
+    <col min="2" max="2" width="8.21875"/>
     <col min="3" max="3" width="7"/>
-    <col min="4" max="4" width="7.1796875"/>
+    <col min="4" max="4" width="7.21875"/>
     <col min="5" max="13" width="7"/>
-    <col min="14" max="1025" width="8.54296875"/>
+    <col min="14" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -699,7 +706,7 @@
         <v>0.58402777777777781</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -713,13 +720,13 @@
         <v>0.64236111111111105</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -727,7 +734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -736,7 +743,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -745,7 +752,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -754,7 +761,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -763,7 +770,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -772,7 +779,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -781,7 +788,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -790,7 +797,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -799,7 +806,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -808,7 +815,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -816,12 +823,12 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -829,7 +836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -861,7 +868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
@@ -890,12 +897,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" s="5">
-        <v>1.2499999999999999E-2</v>
+        <v>18.012499999999999</v>
       </c>
       <c r="C28" s="2">
         <v>50</v>
@@ -922,7 +929,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -954,7 +961,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -986,7 +993,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1018,7 +1025,7 @@
         <v>-6.4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1050,7 +1057,7 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1082,7 +1089,7 @@
         <v>-7.8</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1096,23 +1103,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -1144,7 +1151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1173,7 +1180,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1187,7 +1194,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1201,7 +1208,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1215,7 +1222,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1229,7 +1236,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1243,7 +1250,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -1257,7 +1264,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
@@ -1271,17 +1278,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1289,7 +1296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -1330,7 +1337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>42</v>
       </c>
@@ -1368,7 +1375,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -1409,7 +1416,7 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1450,7 +1457,7 @@
         <v>-6.5</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1491,7 +1498,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -1532,7 +1539,7 @@
         <v>-7.3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -1573,7 +1580,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -1614,7 +1621,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7</v>
       </c>
@@ -1631,17 +1638,17 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -1649,7 +1656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -1663,7 +1670,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -1704,7 +1711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>42</v>
       </c>
@@ -1742,7 +1749,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -1783,7 +1790,7 @@
         <v>-11.7</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -1824,17 +1831,17 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>53</v>
       </c>
@@ -1845,7 +1852,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>42</v>
       </c>
@@ -1856,7 +1863,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>54</v>
       </c>
@@ -1876,7 +1883,7 @@
         <v>3.6805555555555557E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>57</v>
       </c>

--- a/Post_Flight_Datasheet_03_05_V3.xlsx
+++ b/Post_Flight_Datasheet_03_05_V3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\03_05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rolij\Documents\GitHub\SVV_Flight_Dynamics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363B1202-6D5A-4A05-AD12-13E23790C657}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -260,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
@@ -274,7 +275,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,7 +375,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -663,29 +670,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3"/>
-    <col min="2" max="2" width="8.1796875"/>
+    <col min="2" max="2" width="8.21875"/>
     <col min="3" max="3" width="7"/>
-    <col min="4" max="4" width="7.1796875"/>
+    <col min="4" max="4" width="7.21875"/>
     <col min="5" max="13" width="7"/>
-    <col min="14" max="1025" width="8.54296875"/>
+    <col min="14" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -699,7 +706,7 @@
         <v>0.58402777777777781</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -713,13 +720,13 @@
         <v>0.64236111111111105</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -727,7 +734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -736,7 +743,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -745,7 +752,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -754,7 +761,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -763,7 +770,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -772,7 +779,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -781,7 +788,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -790,7 +797,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -799,7 +806,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -808,7 +815,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -816,12 +823,12 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -829,7 +836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -861,7 +868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
@@ -890,7 +897,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -922,7 +929,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -954,7 +961,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -986,7 +993,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -994,7 +1001,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="C31" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
         <v>9000</v>
@@ -1018,7 +1025,7 @@
         <v>-6.4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1050,7 +1057,7 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1082,7 +1089,7 @@
         <v>-7.8</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1096,23 +1103,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -1144,7 +1151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1173,7 +1180,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1187,7 +1194,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1201,7 +1208,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1215,7 +1222,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1229,7 +1236,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1243,7 +1250,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -1257,7 +1264,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
@@ -1271,17 +1278,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1289,7 +1296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -1330,7 +1337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>42</v>
       </c>
@@ -1368,7 +1375,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -1409,7 +1416,7 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1450,7 +1457,7 @@
         <v>-6.5</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1491,7 +1498,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -1532,7 +1539,7 @@
         <v>-7.3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -1573,7 +1580,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -1614,7 +1621,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7</v>
       </c>
@@ -1631,17 +1638,17 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -1649,7 +1656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -1663,7 +1670,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -1704,7 +1711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>42</v>
       </c>
@@ -1742,7 +1749,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -1783,7 +1790,7 @@
         <v>-11.7</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -1824,17 +1831,17 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>53</v>
       </c>
@@ -1845,7 +1852,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>42</v>
       </c>
@@ -1856,7 +1863,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>54</v>
       </c>
@@ -1876,7 +1883,7 @@
         <v>3.6805555555555557E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>57</v>
       </c>
